--- a/Analyzed/try6/data_2014.xlsx
+++ b/Analyzed/try6/data_2014.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC10"/>
+  <dimension ref="A1:AD10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,6 +503,11 @@
           <t>CZcomb</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>XZcomb</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -547,13 +552,13 @@
         <v>60.17504652793269</v>
       </c>
       <c r="N2">
-        <v>187.152</v>
+        <v>438.76</v>
       </c>
       <c r="O2">
-        <v>931.05</v>
+        <v>-118.95</v>
       </c>
       <c r="P2">
-        <v>475.1687016</v>
+        <v>367.7304016200229</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -574,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X2">
         <v>1</v>
@@ -592,6 +597,9 @@
         <v>0</v>
       </c>
       <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
         <v>0</v>
       </c>
     </row>
@@ -638,13 +646,13 @@
         <v>56.40812586039708</v>
       </c>
       <c r="N3">
-        <v>38.864</v>
+        <v>244.552</v>
       </c>
       <c r="O3">
-        <v>939.1900000000001</v>
+        <v>-160.81</v>
       </c>
       <c r="P3">
-        <v>415.2084192</v>
+        <v>311.105248343756</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -662,7 +670,7 @@
         <v>7</v>
       </c>
       <c r="V3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W3">
         <v>4</v>
@@ -671,19 +679,22 @@
         <v>4</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA3">
         <v>1</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC3">
         <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -729,13 +740,13 @@
         <v>56.49437195848255</v>
       </c>
       <c r="N4">
-        <v>125.972</v>
+        <v>318.36</v>
       </c>
       <c r="O4">
-        <v>937.11</v>
+        <v>-112.89</v>
       </c>
       <c r="P4">
-        <v>490.308228</v>
+        <v>401.4563034426525</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -753,10 +764,10 @@
         <v>5</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X4">
         <v>2</v>
@@ -765,16 +776,19 @@
         <v>1</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>1</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -820,13 +834,13 @@
         <v>65.90383795339258</v>
       </c>
       <c r="N5">
-        <v>55.244</v>
+        <v>302.344</v>
       </c>
       <c r="O5">
-        <v>993.86</v>
+        <v>-156.14</v>
       </c>
       <c r="P5">
-        <v>458.2867031999999</v>
+        <v>359.9896390353333</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -850,22 +864,25 @@
         <v>1</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA5">
         <v>2</v>
       </c>
       <c r="AB5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC5">
         <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -911,13 +928,13 @@
         <v>67.22479626283834</v>
       </c>
       <c r="N6">
-        <v>-11.872</v>
+        <v>281.344</v>
       </c>
       <c r="O6">
-        <v>1111.51</v>
+        <v>-188.49</v>
       </c>
       <c r="P6">
-        <v>393.2959536</v>
+        <v>283.2787535830401</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -935,28 +952,31 @@
         <v>2</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X6">
         <v>2</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA6">
         <v>2</v>
       </c>
       <c r="AB6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>2</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1002,13 +1022,13 @@
         <v>62.99067053594349</v>
       </c>
       <c r="N7">
-        <v>-47.40400000000002</v>
+        <v>312.3120000000001</v>
       </c>
       <c r="O7">
-        <v>1050.59</v>
+        <v>-199.41</v>
       </c>
       <c r="P7">
-        <v>443.6472384</v>
+        <v>342.9188940368283</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -1029,25 +1049,28 @@
         <v>2</v>
       </c>
       <c r="W7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X7">
         <v>1</v>
       </c>
       <c r="Y7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA7">
         <v>1</v>
       </c>
       <c r="AB7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC7">
         <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1093,13 +1116,13 @@
         <v>73.84372727957</v>
       </c>
       <c r="N8">
-        <v>72.01600000000001</v>
+        <v>372.3440000000001</v>
       </c>
       <c r="O8">
-        <v>1000.76</v>
+        <v>-149.24</v>
       </c>
       <c r="P8">
-        <v>463.5686808</v>
+        <v>358.8663636270458</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -1117,28 +1140,31 @@
         <v>5</v>
       </c>
       <c r="V8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W8">
         <v>3</v>
       </c>
       <c r="X8">
+        <v>3</v>
+      </c>
+      <c r="Y8">
         <v>4</v>
       </c>
-      <c r="Y8">
-        <v>3</v>
-      </c>
       <c r="Z8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA8">
         <v>3</v>
       </c>
       <c r="AB8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC8">
         <v>3</v>
+      </c>
+      <c r="AD8">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1184,13 +1210,13 @@
         <v>61.0856291596276</v>
       </c>
       <c r="N9">
-        <v>65.52000000000001</v>
+        <v>204.008</v>
       </c>
       <c r="O9">
-        <v>867.86</v>
+        <v>-132.14</v>
       </c>
       <c r="P9">
-        <v>373.7580840000001</v>
+        <v>249.9476826689537</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -1208,27 +1234,30 @@
         <v>2</v>
       </c>
       <c r="V9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X9">
         <v>1</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
         <v>0</v>
       </c>
     </row>
@@ -1275,13 +1304,13 @@
         <v>74.51539589927314</v>
       </c>
       <c r="N10">
-        <v>-198.464</v>
+        <v>128.296</v>
       </c>
       <c r="O10">
-        <v>1119.45</v>
+        <v>-230.55</v>
       </c>
       <c r="P10">
-        <v>389.772</v>
+        <v>266.4224654175234</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -1302,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X10">
         <v>1</v>
@@ -1320,6 +1349,9 @@
         <v>0</v>
       </c>
       <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
         <v>0</v>
       </c>
     </row>
